--- a/bin/resources/dataTest.xlsx
+++ b/bin/resources/dataTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="transferPass" sheetId="5" r:id="rId5"/>
     <sheet name="register" sheetId="6" r:id="rId6"/>
     <sheet name="Xác thực DN" sheetId="7" r:id="rId7"/>
+    <sheet name="Tạo Dịch vụ" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -139,6 +140,18 @@
   </si>
   <si>
     <t>Truong</t>
+  </si>
+  <si>
+    <t>nameService</t>
+  </si>
+  <si>
+    <t>titleService</t>
+  </si>
+  <si>
+    <t>Dịch vụ kiểm thử tự động</t>
+  </si>
+  <si>
+    <t>Gói định kỳ theo tháng</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1848,4 +1861,61 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>